--- a/انیمیشن های پیشنهادی- اوج.xlsx
+++ b/انیمیشن های پیشنهادی- اوج.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.khosrojerdi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\undergit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF2E3641-6948-4A65-8AD6-EBA44DCC5905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3852B9B1-A4DA-4AEB-86BD-6A94378CFD1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{7C2D0634-F377-48D2-BB33-B8CF5FEC6BC1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7C2D0634-F377-48D2-BB33-B8CF5FEC6BC1}"/>
   </bookViews>
   <sheets>
     <sheet name="درخواستی 1" sheetId="1" r:id="rId1"/>
@@ -200,9 +200,6 @@
     <t>گربه های فضایی</t>
   </si>
   <si>
-    <t>گربه های فضایی با نام های تام، پنجولی و تیزبو به سیارۀ زمین می آیند تا عدالت را در همه جا برقرار کنند. آنها بسیار قوی و بسیار پشمالو هستند و بزرگترین مبارزان برعلیه جرم و جنایتند و هرگز اشتباه نمی کنند.</t>
-  </si>
-  <si>
     <t>قوقولی و قدقدا</t>
   </si>
   <si>
@@ -296,6 +293,9 @@
   <si>
     <t>«توربو» داستان حلزون بلند پروازی است که با دیدن مسابقات اوتومبیل‌رانی می‌خواهد همچون قهرمان مسابقه باشد.
  حلزون برای زیادتر شدن سرعتش هر روز تمرین می‌کند، ولی دوستانش او را مسخره می‌کنند. آنها حلزون و برادرش را از مزرعه‌ای که در آن زندگی می‌کنند بیرون می‌اندازند...</t>
+  </si>
+  <si>
+    <t>گربه های فضایی با نام های تام، پنجولی و تیزبو به سیارۀ زمین می آیند تا عدالت را در همه جا برقرار کنند. آنها بسیار قوی و بسیار پشمالو هستند و بزرگترین مبارزان برعلیه جرم و جنایتند و هرگز اشتباه نمی کنند</t>
   </si>
 </sst>
 </file>
@@ -722,7 +722,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1345,7 +1345,7 @@
         <v>1399</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="H20" s="1">
         <v>14072</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="21" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1">
         <v>25</v>
@@ -1371,13 +1371,13 @@
         <v>42</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F21" s="1">
         <v>1399</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H21" s="1">
         <v>10934</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="22" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" s="1">
         <v>26</v>
@@ -1403,13 +1403,13 @@
         <v>39</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F22" s="1">
         <v>1392</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H22" s="1">
         <v>26666</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="23" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="1">
         <v>39</v>
@@ -1435,13 +1435,13 @@
         <v>39</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F23" s="1">
         <v>1399</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H23" s="1">
         <v>49336</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="24" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" s="1">
         <v>16</v>
@@ -1467,13 +1467,13 @@
         <v>16</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F24" s="1">
         <v>1391</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H24" s="1">
         <v>5760</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="25" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="1">
         <v>15</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="26" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="1">
         <v>11</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="27" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" s="1">
         <v>13</v>
@@ -1555,7 +1555,7 @@
         <v>42</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F27" s="1">
         <v>1393</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28" s="1">
         <v>13</v>
@@ -1589,7 +1589,7 @@
         <v>1398</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H28" s="1">
         <v>6528</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="29" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B29" s="1">
         <v>38</v>
@@ -1619,7 +1619,7 @@
         <v>1398</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H29" s="1">
         <v>50832</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="30" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30" s="1">
         <v>26</v>
@@ -1649,7 +1649,7 @@
         <v>1398</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H30" s="1">
         <v>7229</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="31" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31" s="1">
         <v>59</v>
@@ -1675,13 +1675,13 @@
         <v>39</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F31" s="1">
         <v>1399</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H31" s="1">
         <v>39560</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="32" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32" s="1">
         <v>36</v>
@@ -1707,13 +1707,13 @@
         <v>39</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F32" s="1">
         <v>1399</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="1">
         <v>23835</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="33" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B33" s="1">
         <v>19</v>
@@ -1739,13 +1739,13 @@
         <v>39</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F33" s="1">
         <v>1399</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H33" s="1">
         <v>13228</v>
